--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Tgm2-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Tgm2-Itgb1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>39.05137633333333</v>
+        <v>63.19878633333334</v>
       </c>
       <c r="H2">
-        <v>117.154129</v>
+        <v>189.596359</v>
       </c>
       <c r="I2">
-        <v>0.1500316376309417</v>
+        <v>0.1716302872630559</v>
       </c>
       <c r="J2">
-        <v>0.1500316376309417</v>
+        <v>0.1716302872630558</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N2">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O2">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P2">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q2">
-        <v>3702.064657744926</v>
+        <v>11177.0275083302</v>
       </c>
       <c r="R2">
-        <v>33318.58191970433</v>
+        <v>100593.2475749718</v>
       </c>
       <c r="S2">
-        <v>0.025234774911071</v>
+        <v>0.04582032138191152</v>
       </c>
       <c r="T2">
-        <v>0.025234774911071</v>
+        <v>0.04582032138191151</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>39.05137633333333</v>
+        <v>63.19878633333334</v>
       </c>
       <c r="H3">
-        <v>117.154129</v>
+        <v>189.596359</v>
       </c>
       <c r="I3">
-        <v>0.1500316376309417</v>
+        <v>0.1716302872630559</v>
       </c>
       <c r="J3">
-        <v>0.1500316376309417</v>
+        <v>0.1716302872630558</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>436.924088</v>
       </c>
       <c r="O3">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P3">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q3">
-        <v>5687.495663195483</v>
+        <v>9204.357360466176</v>
       </c>
       <c r="R3">
-        <v>51187.46096875935</v>
+        <v>82839.21624419559</v>
       </c>
       <c r="S3">
-        <v>0.03876827828173478</v>
+        <v>0.03773334297121454</v>
       </c>
       <c r="T3">
-        <v>0.03876827828173478</v>
+        <v>0.03773334297121453</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>39.05137633333333</v>
+        <v>63.19878633333334</v>
       </c>
       <c r="H4">
-        <v>117.154129</v>
+        <v>189.596359</v>
       </c>
       <c r="I4">
-        <v>0.1500316376309417</v>
+        <v>0.1716302872630559</v>
       </c>
       <c r="J4">
-        <v>0.1500316376309417</v>
+        <v>0.1716302872630558</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N4">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O4">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P4">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q4">
-        <v>2842.001818527627</v>
+        <v>5310.285184187452</v>
       </c>
       <c r="R4">
-        <v>25578.01636674865</v>
+        <v>47792.56665768706</v>
       </c>
       <c r="S4">
-        <v>0.0193722376072937</v>
+        <v>0.02176956025094573</v>
       </c>
       <c r="T4">
-        <v>0.0193722376072937</v>
+        <v>0.02176956025094573</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>39.05137633333333</v>
+        <v>63.19878633333334</v>
       </c>
       <c r="H5">
-        <v>117.154129</v>
+        <v>189.596359</v>
       </c>
       <c r="I5">
-        <v>0.1500316376309417</v>
+        <v>0.1716302872630559</v>
       </c>
       <c r="J5">
-        <v>0.1500316376309417</v>
+        <v>0.1716302872630558</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N5">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O5">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P5">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q5">
-        <v>4523.55099838223</v>
+        <v>5367.395546909267</v>
       </c>
       <c r="R5">
-        <v>40711.95898544008</v>
+        <v>48306.5599221834</v>
       </c>
       <c r="S5">
-        <v>0.03083435914716299</v>
+        <v>0.02200368467912674</v>
       </c>
       <c r="T5">
-        <v>0.030834359147163</v>
+        <v>0.02200368467912673</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>39.05137633333333</v>
+        <v>63.19878633333334</v>
       </c>
       <c r="H6">
-        <v>117.154129</v>
+        <v>189.596359</v>
       </c>
       <c r="I6">
-        <v>0.1500316376309417</v>
+        <v>0.1716302872630559</v>
       </c>
       <c r="J6">
-        <v>0.1500316376309417</v>
+        <v>0.1716302872630558</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N6">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O6">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P6">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q6">
-        <v>2272.277982850764</v>
+        <v>4042.891056234277</v>
       </c>
       <c r="R6">
-        <v>20450.50184565688</v>
+        <v>36386.01950610849</v>
       </c>
       <c r="S6">
-        <v>0.01548876876384699</v>
+        <v>0.0165738670116582</v>
       </c>
       <c r="T6">
-        <v>0.01548876876384699</v>
+        <v>0.0165738670116582</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>39.05137633333333</v>
+        <v>63.19878633333334</v>
       </c>
       <c r="H7">
-        <v>117.154129</v>
+        <v>189.596359</v>
       </c>
       <c r="I7">
-        <v>0.1500316376309417</v>
+        <v>0.1716302872630559</v>
       </c>
       <c r="J7">
-        <v>0.1500316376309417</v>
+        <v>0.1716302872630558</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N7">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O7">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P7">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q7">
-        <v>2982.982467906888</v>
+        <v>6764.105914945816</v>
       </c>
       <c r="R7">
-        <v>26846.84221116199</v>
+        <v>60876.95323451234</v>
       </c>
       <c r="S7">
-        <v>0.02033321891983224</v>
+        <v>0.02772951096819915</v>
       </c>
       <c r="T7">
-        <v>0.02033321891983224</v>
+        <v>0.02772951096819914</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>10.651417</v>
       </c>
       <c r="I8">
-        <v>0.01364057374025676</v>
+        <v>0.00964209317684522</v>
       </c>
       <c r="J8">
-        <v>0.01364057374025676</v>
+        <v>0.009642093176845218</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N8">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O8">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P8">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q8">
-        <v>336.5842481796223</v>
+        <v>627.9191300909738</v>
       </c>
       <c r="R8">
-        <v>3029.258233616601</v>
+        <v>5651.272170818765</v>
       </c>
       <c r="S8">
-        <v>0.002294294812937879</v>
+        <v>0.00257415992947816</v>
       </c>
       <c r="T8">
-        <v>0.00229429481293788</v>
+        <v>0.002574159929478159</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>10.651417</v>
       </c>
       <c r="I9">
-        <v>0.01364057374025676</v>
+        <v>0.00964209317684522</v>
       </c>
       <c r="J9">
-        <v>0.01364057374025676</v>
+        <v>0.009642093176845218</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>436.924088</v>
       </c>
       <c r="O9">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P9">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q9">
         <v>517.0956287369662</v>
@@ -1013,10 +1013,10 @@
         <v>4653.860658632696</v>
       </c>
       <c r="S9">
-        <v>0.003524733629753678</v>
+        <v>0.002119838022788323</v>
       </c>
       <c r="T9">
-        <v>0.003524733629753679</v>
+        <v>0.002119838022788322</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>10.651417</v>
       </c>
       <c r="I10">
-        <v>0.01364057374025676</v>
+        <v>0.00964209317684522</v>
       </c>
       <c r="J10">
-        <v>0.01364057374025676</v>
+        <v>0.009642093176845218</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N10">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O10">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P10">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q10">
-        <v>258.3890703834782</v>
+        <v>298.3288401951978</v>
       </c>
       <c r="R10">
-        <v>2325.501633451304</v>
+        <v>2684.95956175678</v>
       </c>
       <c r="S10">
-        <v>0.001761284751460766</v>
+        <v>0.001223001672407895</v>
       </c>
       <c r="T10">
-        <v>0.001761284751460766</v>
+        <v>0.001223001672407895</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>10.651417</v>
       </c>
       <c r="I11">
-        <v>0.01364057374025676</v>
+        <v>0.00964209317684522</v>
       </c>
       <c r="J11">
-        <v>0.01364057374025676</v>
+        <v>0.009642093176845218</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N11">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O11">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P11">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q11">
-        <v>411.2721285694972</v>
+        <v>301.5372683083733</v>
       </c>
       <c r="R11">
-        <v>3701.449157125475</v>
+        <v>2713.835414775359</v>
       </c>
       <c r="S11">
-        <v>0.002803397712121589</v>
+        <v>0.001236154651334259</v>
       </c>
       <c r="T11">
-        <v>0.002803397712121589</v>
+        <v>0.001236154651334259</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>10.651417</v>
       </c>
       <c r="I12">
-        <v>0.01364057374025676</v>
+        <v>0.00964209317684522</v>
       </c>
       <c r="J12">
-        <v>0.01364057374025676</v>
+        <v>0.009642093176845218</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N12">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O12">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P12">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q12">
-        <v>206.5909289058206</v>
+        <v>227.1273496635119</v>
       </c>
       <c r="R12">
-        <v>1859.318360152386</v>
+        <v>2044.146146971607</v>
       </c>
       <c r="S12">
-        <v>0.001408207600777851</v>
+        <v>0.000931110543339682</v>
       </c>
       <c r="T12">
-        <v>0.001408207600777851</v>
+        <v>0.0009311105433396818</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>10.651417</v>
       </c>
       <c r="I13">
-        <v>0.01364057374025676</v>
+        <v>0.00964209317684522</v>
       </c>
       <c r="J13">
-        <v>0.01364057374025676</v>
+        <v>0.009642093176845218</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N13">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O13">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P13">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q13">
-        <v>271.2067465361411</v>
+        <v>380.0036726035146</v>
       </c>
       <c r="R13">
-        <v>2440.86071882527</v>
+        <v>3420.033053431631</v>
       </c>
       <c r="S13">
-        <v>0.001848655233204992</v>
+        <v>0.001557828357496901</v>
       </c>
       <c r="T13">
-        <v>0.001848655233204993</v>
+        <v>0.001557828357496901</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>64.09165766666666</v>
+        <v>79.47571333333333</v>
       </c>
       <c r="H14">
-        <v>192.274973</v>
+        <v>238.42714</v>
       </c>
       <c r="I14">
-        <v>0.2462339938068688</v>
+        <v>0.2158338838643459</v>
       </c>
       <c r="J14">
-        <v>0.2462339938068688</v>
+        <v>0.2158338838643459</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N14">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O14">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P14">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q14">
-        <v>6075.879597143006</v>
+        <v>14055.68501720276</v>
       </c>
       <c r="R14">
-        <v>54682.91637428706</v>
+        <v>126501.1651548249</v>
       </c>
       <c r="S14">
-        <v>0.04141566077186451</v>
+        <v>0.05762140285072675</v>
       </c>
       <c r="T14">
-        <v>0.04141566077186452</v>
+        <v>0.05762140285072674</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>64.09165766666666</v>
+        <v>79.47571333333333</v>
       </c>
       <c r="H15">
-        <v>192.274973</v>
+        <v>238.42714</v>
       </c>
       <c r="I15">
-        <v>0.2462339938068688</v>
+        <v>0.2158338838643459</v>
       </c>
       <c r="J15">
-        <v>0.2462339938068688</v>
+        <v>0.2158338838643459</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>436.924088</v>
       </c>
       <c r="O15">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P15">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q15">
-        <v>9334.396358138845</v>
+        <v>11574.95118877203</v>
       </c>
       <c r="R15">
-        <v>84009.56722324961</v>
+        <v>104174.5606989483</v>
       </c>
       <c r="S15">
-        <v>0.06362703323821425</v>
+        <v>0.04745161296723944</v>
       </c>
       <c r="T15">
-        <v>0.06362703323821427</v>
+        <v>0.04745161296723943</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>64.09165766666666</v>
+        <v>79.47571333333333</v>
       </c>
       <c r="H16">
-        <v>192.274973</v>
+        <v>238.42714</v>
       </c>
       <c r="I16">
-        <v>0.2462339938068688</v>
+        <v>0.2158338838643459</v>
       </c>
       <c r="J16">
-        <v>0.2462339938068688</v>
+        <v>0.2158338838643459</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N16">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O16">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P16">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q16">
-        <v>4664.332598327374</v>
+        <v>6677.955820080844</v>
       </c>
       <c r="R16">
-        <v>41978.99338494637</v>
+        <v>60101.60238072761</v>
       </c>
       <c r="S16">
-        <v>0.03179398365798939</v>
+        <v>0.0273763379057858</v>
       </c>
       <c r="T16">
-        <v>0.03179398365798939</v>
+        <v>0.0273763379057858</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>64.09165766666666</v>
+        <v>79.47571333333333</v>
       </c>
       <c r="H17">
-        <v>192.274973</v>
+        <v>238.42714</v>
       </c>
       <c r="I17">
-        <v>0.2462339938068688</v>
+        <v>0.2158338838643459</v>
       </c>
       <c r="J17">
-        <v>0.2462339938068688</v>
+        <v>0.2158338838643459</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N17">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O17">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P17">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q17">
-        <v>7424.114314213086</v>
+        <v>6749.775028634976</v>
       </c>
       <c r="R17">
-        <v>66817.02882791778</v>
+        <v>60747.97525771479</v>
       </c>
       <c r="S17">
-        <v>0.05060577568284484</v>
+        <v>0.02767076137525407</v>
       </c>
       <c r="T17">
-        <v>0.05060577568284485</v>
+        <v>0.02767076137525407</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>64.09165766666666</v>
+        <v>79.47571333333333</v>
       </c>
       <c r="H18">
-        <v>192.274973</v>
+        <v>238.42714</v>
       </c>
       <c r="I18">
-        <v>0.2462339938068688</v>
+        <v>0.2158338838643459</v>
       </c>
       <c r="J18">
-        <v>0.2462339938068688</v>
+        <v>0.2158338838643459</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N18">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O18">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P18">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q18">
-        <v>3729.293978201359</v>
+        <v>5084.142738571883</v>
       </c>
       <c r="R18">
-        <v>33563.64580381223</v>
+        <v>45757.28464714695</v>
       </c>
       <c r="S18">
-        <v>0.02542038100826922</v>
+        <v>0.02084248733030792</v>
       </c>
       <c r="T18">
-        <v>0.02542038100826923</v>
+        <v>0.02084248733030792</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>64.09165766666666</v>
+        <v>79.47571333333333</v>
       </c>
       <c r="H19">
-        <v>192.274973</v>
+        <v>238.42714</v>
       </c>
       <c r="I19">
-        <v>0.2462339938068688</v>
+        <v>0.2158338838643459</v>
       </c>
       <c r="J19">
-        <v>0.2462339938068688</v>
+        <v>0.2158338838643459</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N19">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O19">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P19">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q19">
-        <v>4895.711985330626</v>
+        <v>8506.209910695668</v>
       </c>
       <c r="R19">
-        <v>44061.40786797563</v>
+        <v>76555.88919626104</v>
       </c>
       <c r="S19">
-        <v>0.0333711594476865</v>
+        <v>0.03487128143503195</v>
       </c>
       <c r="T19">
-        <v>0.0333711594476865</v>
+        <v>0.03487128143503195</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.688700333333333</v>
+        <v>1.612671333333333</v>
       </c>
       <c r="H20">
-        <v>11.066101</v>
+        <v>4.838013999999999</v>
       </c>
       <c r="I20">
-        <v>0.01417163244173325</v>
+        <v>0.004379565815410442</v>
       </c>
       <c r="J20">
-        <v>0.01417163244173325</v>
+        <v>0.004379565815410442</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N20">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O20">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P20">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q20">
-        <v>349.6882419836503</v>
+        <v>285.2091456233431</v>
       </c>
       <c r="R20">
-        <v>3147.194177852853</v>
+        <v>2566.882310610088</v>
       </c>
       <c r="S20">
-        <v>0.002383616951974247</v>
+        <v>0.001169217370520218</v>
       </c>
       <c r="T20">
-        <v>0.002383616951974248</v>
+        <v>0.001169217370520218</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.688700333333333</v>
+        <v>1.612671333333333</v>
       </c>
       <c r="H21">
-        <v>11.066101</v>
+        <v>4.838013999999999</v>
       </c>
       <c r="I21">
-        <v>0.01417163244173325</v>
+        <v>0.004379565815410442</v>
       </c>
       <c r="J21">
-        <v>0.01417163244173325</v>
+        <v>0.004379565815410442</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>436.924088</v>
       </c>
       <c r="O21">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P21">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q21">
-        <v>537.2273430156541</v>
+        <v>234.8716505201368</v>
       </c>
       <c r="R21">
-        <v>4835.046087140888</v>
+        <v>2113.844854681231</v>
       </c>
       <c r="S21">
-        <v>0.003661959563215937</v>
+        <v>0.0009628583719877104</v>
       </c>
       <c r="T21">
-        <v>0.003661959563215938</v>
+        <v>0.0009628583719877104</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3.688700333333333</v>
+        <v>1.612671333333333</v>
       </c>
       <c r="H22">
-        <v>11.066101</v>
+        <v>4.838013999999999</v>
       </c>
       <c r="I22">
-        <v>0.01417163244173325</v>
+        <v>0.004379565815410442</v>
       </c>
       <c r="J22">
-        <v>0.01417163244173325</v>
+        <v>0.004379565815410442</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N22">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O22">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P22">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q22">
-        <v>268.4487472567902</v>
+        <v>135.5048915527511</v>
       </c>
       <c r="R22">
-        <v>2416.038725311112</v>
+        <v>1219.54402397476</v>
       </c>
       <c r="S22">
-        <v>0.001829855590990826</v>
+        <v>0.0005555034802536421</v>
       </c>
       <c r="T22">
-        <v>0.001829855590990826</v>
+        <v>0.0005555034802536421</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.688700333333333</v>
+        <v>1.612671333333333</v>
       </c>
       <c r="H23">
-        <v>11.066101</v>
+        <v>4.838013999999999</v>
       </c>
       <c r="I23">
-        <v>0.01417163244173325</v>
+        <v>0.004379565815410442</v>
       </c>
       <c r="J23">
-        <v>0.01417163244173325</v>
+        <v>0.004379565815410442</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N23">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O23">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P23">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q23">
-        <v>427.2838922027972</v>
+        <v>136.9622018927309</v>
       </c>
       <c r="R23">
-        <v>3845.555029825175</v>
+        <v>1232.659817034578</v>
       </c>
       <c r="S23">
-        <v>0.002912540390213473</v>
+        <v>0.0005614777366542183</v>
       </c>
       <c r="T23">
-        <v>0.002912540390213473</v>
+        <v>0.0005614777366542183</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.688700333333333</v>
+        <v>1.612671333333333</v>
       </c>
       <c r="H24">
-        <v>11.066101</v>
+        <v>4.838013999999999</v>
       </c>
       <c r="I24">
-        <v>0.01417163244173325</v>
+        <v>0.004379565815410442</v>
       </c>
       <c r="J24">
-        <v>0.01417163244173325</v>
+        <v>0.004379565815410442</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N24">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O24">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P24">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q24">
-        <v>214.6339857838286</v>
+        <v>103.1642360312215</v>
       </c>
       <c r="R24">
-        <v>1931.705872054458</v>
+        <v>928.4781242809939</v>
       </c>
       <c r="S24">
-        <v>0.001463032340126705</v>
+        <v>0.0004229226819516114</v>
       </c>
       <c r="T24">
-        <v>0.001463032340126706</v>
+        <v>0.0004229226819516114</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3.688700333333333</v>
+        <v>1.612671333333333</v>
       </c>
       <c r="H25">
-        <v>11.066101</v>
+        <v>4.838013999999999</v>
       </c>
       <c r="I25">
-        <v>0.01417163244173325</v>
+        <v>0.004379565815410442</v>
       </c>
       <c r="J25">
-        <v>0.01417163244173325</v>
+        <v>0.004379565815410442</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N25">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O25">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P25">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q25">
-        <v>281.7654448277011</v>
+        <v>172.6026770060002</v>
       </c>
       <c r="R25">
-        <v>2535.88900344931</v>
+        <v>1553.424093054002</v>
       </c>
       <c r="S25">
-        <v>0.001920627605212058</v>
+        <v>0.0007075861740430417</v>
       </c>
       <c r="T25">
-        <v>0.001920627605212058</v>
+        <v>0.0007075861740430417</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>117.3842696666667</v>
+        <v>170.0436656666667</v>
       </c>
       <c r="H26">
-        <v>352.152809</v>
+        <v>510.130997</v>
       </c>
       <c r="I26">
-        <v>0.4509790912329367</v>
+        <v>0.4617911969337929</v>
       </c>
       <c r="J26">
-        <v>0.4509790912329367</v>
+        <v>0.4617911969337928</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N26">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O26">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P26">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q26">
-        <v>11128.01127414382</v>
+        <v>30073.08904239512</v>
       </c>
       <c r="R26">
-        <v>100152.1014672944</v>
+        <v>270657.8013815561</v>
       </c>
       <c r="S26">
-        <v>0.07585304030911602</v>
+        <v>0.1232848898190864</v>
       </c>
       <c r="T26">
-        <v>0.07585304030911603</v>
+        <v>0.1232848898190863</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>117.3842696666667</v>
+        <v>170.0436656666667</v>
       </c>
       <c r="H27">
-        <v>352.152809</v>
+        <v>510.130997</v>
       </c>
       <c r="I27">
-        <v>0.4509790912329367</v>
+        <v>0.4617911969337929</v>
       </c>
       <c r="J27">
-        <v>0.4509790912329367</v>
+        <v>0.4617911969337928</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>436.924088</v>
       </c>
       <c r="O27">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P27">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q27">
-        <v>17096.0049898848</v>
+        <v>24765.39118052841</v>
       </c>
       <c r="R27">
-        <v>153864.0449089632</v>
+        <v>222888.5206247557</v>
       </c>
       <c r="S27">
-        <v>0.1165333071359917</v>
+        <v>0.1015259363184744</v>
       </c>
       <c r="T27">
-        <v>0.1165333071359917</v>
+        <v>0.1015259363184744</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>117.3842696666667</v>
+        <v>170.0436656666667</v>
       </c>
       <c r="H28">
-        <v>352.152809</v>
+        <v>510.130997</v>
       </c>
       <c r="I28">
-        <v>0.4509790912329367</v>
+        <v>0.4617911969337929</v>
       </c>
       <c r="J28">
-        <v>0.4509790912329367</v>
+        <v>0.4617911969337928</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N28">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O28">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P28">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q28">
-        <v>8542.754165989423</v>
+        <v>14287.93827925711</v>
       </c>
       <c r="R28">
-        <v>76884.78749390481</v>
+        <v>128591.444513314</v>
       </c>
       <c r="S28">
-        <v>0.0582308788282137</v>
+        <v>0.05857352711644909</v>
       </c>
       <c r="T28">
-        <v>0.0582308788282137</v>
+        <v>0.05857352711644908</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>117.3842696666667</v>
+        <v>170.0436656666667</v>
       </c>
       <c r="H29">
-        <v>352.152809</v>
+        <v>510.130997</v>
       </c>
       <c r="I29">
-        <v>0.4509790912329367</v>
+        <v>0.4617911969337929</v>
       </c>
       <c r="J29">
-        <v>0.4509790912329367</v>
+        <v>0.4617911969337928</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N29">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O29">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P29">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q29">
-        <v>13597.31154447879</v>
+        <v>14441.600334942</v>
       </c>
       <c r="R29">
-        <v>122375.8039003091</v>
+        <v>129974.403014478</v>
       </c>
       <c r="S29">
-        <v>0.09268479293109927</v>
+        <v>0.05920346604882083</v>
       </c>
       <c r="T29">
-        <v>0.09268479293109928</v>
+        <v>0.05920346604882082</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>117.3842696666667</v>
+        <v>170.0436656666667</v>
       </c>
       <c r="H30">
-        <v>352.152809</v>
+        <v>510.130997</v>
       </c>
       <c r="I30">
-        <v>0.4509790912329367</v>
+        <v>0.4617911969337929</v>
       </c>
       <c r="J30">
-        <v>0.4509790912329367</v>
+        <v>0.4617911969337928</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N30">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O30">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P30">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q30">
-        <v>6830.22511728759</v>
+        <v>10877.86736072909</v>
       </c>
       <c r="R30">
-        <v>61472.02605558831</v>
+        <v>97900.80624656178</v>
       </c>
       <c r="S30">
-        <v>0.04655758593143716</v>
+        <v>0.04459391175757026</v>
       </c>
       <c r="T30">
-        <v>0.04655758593143717</v>
+        <v>0.04459391175757024</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>117.3842696666667</v>
+        <v>170.0436656666667</v>
       </c>
       <c r="H31">
-        <v>352.152809</v>
+        <v>510.130997</v>
       </c>
       <c r="I31">
-        <v>0.4509790912329367</v>
+        <v>0.4617911969337929</v>
       </c>
       <c r="J31">
-        <v>0.4509790912329367</v>
+        <v>0.4617911969337928</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N31">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O31">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P31">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q31">
-        <v>8966.526952465867</v>
+        <v>18199.6115980524</v>
       </c>
       <c r="R31">
-        <v>80698.7425721928</v>
+        <v>163796.5043824716</v>
       </c>
       <c r="S31">
-        <v>0.06111948609707873</v>
+        <v>0.07460946587339194</v>
       </c>
       <c r="T31">
-        <v>0.06111948609707875</v>
+        <v>0.07460946587339191</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>32.52113333333333</v>
+        <v>50.344995</v>
       </c>
       <c r="H32">
-        <v>97.5634</v>
+        <v>151.034985</v>
       </c>
       <c r="I32">
-        <v>0.1249430711472629</v>
+        <v>0.1367229729465498</v>
       </c>
       <c r="J32">
-        <v>0.1249430711472629</v>
+        <v>0.1367229729465497</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N32">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O32">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P32">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q32">
-        <v>3082.998594351133</v>
+        <v>8903.768990971181</v>
       </c>
       <c r="R32">
-        <v>27746.9873491602</v>
+        <v>80133.92091874062</v>
       </c>
       <c r="S32">
-        <v>0.02101496942168197</v>
+        <v>0.03650107833881022</v>
       </c>
       <c r="T32">
-        <v>0.02101496942168197</v>
+        <v>0.03650107833881021</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>32.52113333333333</v>
+        <v>50.344995</v>
       </c>
       <c r="H33">
-        <v>97.5634</v>
+        <v>151.034985</v>
       </c>
       <c r="I33">
-        <v>0.1249430711472629</v>
+        <v>0.1367229729465498</v>
       </c>
       <c r="J33">
-        <v>0.1249430711472629</v>
+        <v>0.1367229729465497</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>436.924088</v>
       </c>
       <c r="O33">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P33">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q33">
-        <v>4736.422174131021</v>
+        <v>7332.31367524652</v>
       </c>
       <c r="R33">
-        <v>42627.7995671792</v>
+        <v>65990.82307721868</v>
       </c>
       <c r="S33">
-        <v>0.03228537545878731</v>
+        <v>0.03005888361842034</v>
       </c>
       <c r="T33">
-        <v>0.03228537545878732</v>
+        <v>0.03005888361842034</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>32.52113333333333</v>
+        <v>50.344995</v>
       </c>
       <c r="H34">
-        <v>97.5634</v>
+        <v>151.034985</v>
       </c>
       <c r="I34">
-        <v>0.1249430711472629</v>
+        <v>0.1367229729465498</v>
       </c>
       <c r="J34">
-        <v>0.1249430711472629</v>
+        <v>0.1367229729465497</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N34">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O34">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P34">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q34">
-        <v>2366.757045513422</v>
+        <v>4230.2439106411</v>
       </c>
       <c r="R34">
-        <v>21300.8134096208</v>
+        <v>38072.19519576991</v>
       </c>
       <c r="S34">
-        <v>0.01613277639216146</v>
+        <v>0.01734192166611272</v>
       </c>
       <c r="T34">
-        <v>0.01613277639216146</v>
+        <v>0.01734192166611271</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>32.52113333333333</v>
+        <v>50.344995</v>
       </c>
       <c r="H35">
-        <v>97.5634</v>
+        <v>151.034985</v>
       </c>
       <c r="I35">
-        <v>0.1249430711472629</v>
+        <v>0.1367229729465498</v>
       </c>
       <c r="J35">
-        <v>0.1249430711472629</v>
+        <v>0.1367229729465497</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N35">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O35">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P35">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q35">
-        <v>3767.114477677222</v>
+        <v>4275.738786294456</v>
       </c>
       <c r="R35">
-        <v>33904.030299095</v>
+        <v>38481.6490766501</v>
       </c>
       <c r="S35">
-        <v>0.02567818087929553</v>
+        <v>0.0175284283041355</v>
       </c>
       <c r="T35">
-        <v>0.02567818087929554</v>
+        <v>0.0175284283041355</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>32.52113333333333</v>
+        <v>50.344995</v>
       </c>
       <c r="H36">
-        <v>97.5634</v>
+        <v>151.034985</v>
       </c>
       <c r="I36">
-        <v>0.1249430711472629</v>
+        <v>0.1367229729465498</v>
       </c>
       <c r="J36">
-        <v>0.1249430711472629</v>
+        <v>0.1367229729465497</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N36">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O36">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P36">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q36">
-        <v>1892.303477857466</v>
+        <v>3220.620866643215</v>
       </c>
       <c r="R36">
-        <v>17030.7313007172</v>
+        <v>28985.58779978894</v>
       </c>
       <c r="S36">
-        <v>0.0128987083538021</v>
+        <v>0.01320296322514185</v>
       </c>
       <c r="T36">
-        <v>0.01289870835380211</v>
+        <v>0.01320296322514185</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>32.52113333333333</v>
+        <v>50.344995</v>
       </c>
       <c r="H37">
-        <v>97.5634</v>
+        <v>151.034985</v>
       </c>
       <c r="I37">
-        <v>0.1249430711472629</v>
+        <v>0.1367229729465498</v>
       </c>
       <c r="J37">
-        <v>0.1249430711472629</v>
+        <v>0.1367229729465497</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N37">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O37">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P37">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q37">
-        <v>2484.162651317111</v>
+        <v>5388.376869633095</v>
       </c>
       <c r="R37">
-        <v>22357.463861854</v>
+        <v>48495.39182669786</v>
       </c>
       <c r="S37">
-        <v>0.01693306064153454</v>
+        <v>0.02208969779392912</v>
       </c>
       <c r="T37">
-        <v>0.01693306064153455</v>
+        <v>0.02208969779392912</v>
       </c>
     </row>
   </sheetData>
